--- a/REGULAR/PICNIC GROVE/COSME, MA. VICTORIA.xlsx
+++ b/REGULAR/PICNIC GROVE/COSME, MA. VICTORIA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>12/12-15/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1338,12 +1341,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A90" activePane="bottomLeft"/>
+      <selection activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1364,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1382,7 +1385,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1404,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1422,7 +1425,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1437,7 +1440,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1450,7 +1453,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="52" t="s">
@@ -1467,7 +1470,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1511,7 +1514,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>102.31</v>
+        <v>104.81</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1521,12 +1524,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>131</v>
+        <v>133.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1548,7 +1552,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1568,7 +1572,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1588,7 +1592,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1608,7 +1612,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1628,7 +1632,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1648,7 +1652,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -3317,15 +3321,17 @@
       <c r="B96" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C96" s="14"/>
+      <c r="C96" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="41">
         <v>5</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="41"/>
       <c r="I96" s="10"/>
@@ -3381,15 +3387,17 @@
       <c r="B99" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="14"/>
+      <c r="C99" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="41">
         <v>4</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="41"/>
       <c r="I99" s="10"/>
@@ -3399,7 +3407,9 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+      <c r="A100" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
       <c r="D100" s="41"/>
@@ -3415,7 +3425,9 @@
       <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
+      <c r="A101" s="42">
+        <v>45292</v>
+      </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
       <c r="D101" s="41"/>
@@ -3431,7 +3443,9 @@
       <c r="K101" s="21"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
+      <c r="A102" s="42">
+        <v>45323</v>
+      </c>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
       <c r="D102" s="41"/>
@@ -3447,7 +3461,9 @@
       <c r="K102" s="21"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
+      <c r="A103" s="42">
+        <v>45352</v>
+      </c>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
       <c r="D103" s="41"/>
@@ -3463,7 +3479,9 @@
       <c r="K103" s="21"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
+      <c r="A104" s="42">
+        <v>45383</v>
+      </c>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
       <c r="D104" s="41"/>
@@ -3479,7 +3497,9 @@
       <c r="K104" s="21"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
+      <c r="A105" s="42">
+        <v>45413</v>
+      </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
       <c r="D105" s="41"/>
@@ -3495,7 +3515,9 @@
       <c r="K105" s="21"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
+      <c r="A106" s="42">
+        <v>45444</v>
+      </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
       <c r="D106" s="41"/>
@@ -3511,7 +3533,9 @@
       <c r="K106" s="21"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
+      <c r="A107" s="42">
+        <v>45474</v>
+      </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
       <c r="D107" s="41"/>
@@ -3527,7 +3551,9 @@
       <c r="K107" s="21"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
+      <c r="A108" s="42">
+        <v>45505</v>
+      </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
       <c r="D108" s="41"/>
@@ -3543,7 +3569,9 @@
       <c r="K108" s="21"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
+      <c r="A109" s="42">
+        <v>45536</v>
+      </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
       <c r="D109" s="41"/>
@@ -3559,7 +3587,9 @@
       <c r="K109" s="21"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
+      <c r="A110" s="42">
+        <v>45566</v>
+      </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
       <c r="D110" s="41"/>
@@ -3575,7 +3605,9 @@
       <c r="K110" s="21"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
+      <c r="A111" s="42">
+        <v>45597</v>
+      </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
       <c r="D111" s="41"/>
@@ -3591,7 +3623,9 @@
       <c r="K111" s="21"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
+      <c r="A112" s="42">
+        <v>45627</v>
+      </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
       <c r="D112" s="41"/>
@@ -3607,7 +3641,9 @@
       <c r="K112" s="21"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
+      <c r="A113" s="42">
+        <v>45658</v>
+      </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
       <c r="D113" s="41"/>
